--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1074150.069733236</v>
+        <v>1070138.267001139</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140337</v>
+        <v>6432656.960140347</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4945295.069332253</v>
+        <v>4945295.069332252</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>144.593923826277</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>285.5816123660059</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>132.3255860170322</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>155.6382260081716</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3339849899809</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>128.5147424800119</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.16259584894131</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>9.267814325144167</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>270.8079612992974</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>324.2865512940499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.79390931921723</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>91.12177846841257</v>
       </c>
       <c r="T19" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>255.858849530791</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>32.87830833492688</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>18.58858571028546</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30.79099995002169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>113.9353216629386</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>365.8089978419103</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>344.2818846053596</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.64110713078</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>144.938972041317</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
-        <v>152.8999186087154</v>
+        <v>152.8999186087152</v>
       </c>
       <c r="T28" t="n">
         <v>237.097464026797</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127.4147864733911</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>101.9446174597139</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>147.2513662785305</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>205.7715087654109</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.50393404854792</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>279.5143225609986</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.0651985954397</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648595</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>128.4717755056407</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>202.954152637279</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>270.5675754842794</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>65.95702509550281</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>26.51105219961368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648595</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>190.3847512119501</v>
+        <v>131.2031034770981</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3915,7 +3915,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>201.2572775289341</v>
+        <v>66.82387275100855</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>56.62042510718583</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>179.711757949982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.696018019228695</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>51.12214921202164</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>746.9684841031977</v>
+        <v>1316.315573429588</v>
       </c>
       <c r="C11" t="n">
-        <v>320.0677541164978</v>
+        <v>889.4148434428885</v>
       </c>
       <c r="D11" t="n">
-        <v>320.0677541164978</v>
+        <v>466.1222226278887</v>
       </c>
       <c r="E11" t="n">
         <v>320.0677541164978</v>
@@ -5035,58 +5035,58 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
         <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V11" t="n">
-        <v>1578.536847226981</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W11" t="n">
-        <v>1578.536847226981</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.816848394728</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="Y11" t="n">
-        <v>1166.816848394728</v>
+        <v>1316.315573429588</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,37 +5111,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J12" t="n">
-        <v>299.0104088577483</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K12" t="n">
-        <v>446.8013632259966</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L12" t="n">
-        <v>653.0519528483964</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M12" t="n">
-        <v>896.8821538038977</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N12" t="n">
-        <v>1149.507219438093</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O12" t="n">
-        <v>1376.999083460952</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P12" t="n">
-        <v>1556.439737111774</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0707185768411</v>
+        <v>946.0175824680537</v>
       </c>
       <c r="C13" t="n">
-        <v>350.4085104788288</v>
+        <v>774.0450193469696</v>
       </c>
       <c r="D13" t="n">
-        <v>350.4085104788288</v>
+        <v>610.7282464737403</v>
       </c>
       <c r="E13" t="n">
-        <v>350.4085104788288</v>
+        <v>444.5200406265939</v>
       </c>
       <c r="F13" t="n">
-        <v>178.5467362533892</v>
+        <v>272.6582664011543</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5467362533892</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L13" t="n">
-        <v>652.3645187823272</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.462820193972</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N13" t="n">
-        <v>1295.958075335492</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.114422406825</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426652</v>
+        <v>1414.924247332506</v>
       </c>
       <c r="W13" t="n">
-        <v>900.5794555991647</v>
+        <v>1414.924247332506</v>
       </c>
       <c r="X13" t="n">
-        <v>900.5794555991647</v>
+        <v>1172.360350778312</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2366872889068</v>
+        <v>946.0175824680537</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1726.050915962271</v>
+        <v>508.2042248976826</v>
       </c>
       <c r="C14" t="n">
-        <v>1299.150185975571</v>
+        <v>81.30349491098269</v>
       </c>
       <c r="D14" t="n">
-        <v>875.8575651605715</v>
+        <v>81.30349491098269</v>
       </c>
       <c r="E14" t="n">
-        <v>449.8806253084291</v>
+        <v>81.30349491098269</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>81.30349491098269</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072042</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610008</v>
+        <v>437.069171561</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.770914794524</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="X14" t="n">
-        <v>1726.050915962271</v>
+        <v>913.5414949427923</v>
       </c>
       <c r="Y14" t="n">
-        <v>1726.050915962271</v>
+        <v>508.2042248976826</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E15" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F15" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>385.1054302494206</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J15" t="n">
-        <v>464.1447550896847</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K15" t="n">
-        <v>611.9357094579329</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L15" t="n">
-        <v>818.1862990803327</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.016500035834</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
-        <v>1314.641565670029</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O15" t="n">
-        <v>1542.133429692889</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P15" t="n">
-        <v>1984.016277348648</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q15" t="n">
-        <v>2095.855732839468</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R15" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S15" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T15" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U15" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V15" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W15" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7469826734012</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C16" t="n">
-        <v>751.7744195523172</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="D16" t="n">
-        <v>588.4576466790879</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="E16" t="n">
-        <v>588.4576466790879</v>
+        <v>223.9786211325868</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574696</v>
+        <v>52.11684690714719</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>793.5055319595109</v>
+        <v>275.9756251911621</v>
       </c>
       <c r="M16" t="n">
-        <v>1322.603833371156</v>
+        <v>805.0739266028065</v>
       </c>
       <c r="N16" t="n">
-        <v>1437.099088512676</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O16" t="n">
-        <v>1539.553111280806</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.215415329222</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U16" t="n">
-        <v>1857.672020077407</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V16" t="n">
-        <v>1857.672020077407</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.81961624992</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.255719695725</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.912951385467</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1925.631778790233</v>
+        <v>1293.504102303812</v>
       </c>
       <c r="C17" t="n">
-        <v>1498.731048803533</v>
+        <v>1293.504102303812</v>
       </c>
       <c r="D17" t="n">
-        <v>1171.16887577924</v>
+        <v>870.211481488812</v>
       </c>
       <c r="E17" t="n">
-        <v>745.1919359270976</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F17" t="n">
-        <v>320.0677541164978</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103585</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072042</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610008</v>
+        <v>437.069171561</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2101.615450835718</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790233</v>
+        <v>2101.615450835718</v>
       </c>
       <c r="U17" t="n">
-        <v>1925.631778790233</v>
+        <v>2101.615450835718</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.631778790233</v>
+        <v>2101.615450835718</v>
       </c>
       <c r="W17" t="n">
-        <v>1925.631778790233</v>
+        <v>1705.224101136064</v>
       </c>
       <c r="X17" t="n">
-        <v>1925.631778790233</v>
+        <v>1293.504102303812</v>
       </c>
       <c r="Y17" t="n">
-        <v>1925.631778790233</v>
+        <v>1293.504102303812</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,37 +5585,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L18" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M18" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N18" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O18" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P18" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q18" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.1913074419649</v>
+        <v>543.4013716863825</v>
       </c>
       <c r="C19" t="n">
-        <v>782.1913074419649</v>
+        <v>371.4288085652985</v>
       </c>
       <c r="D19" t="n">
-        <v>618.8745345687356</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="E19" t="n">
-        <v>452.6663287215891</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="F19" t="n">
-        <v>280.8045544961495</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>601.1799509534052</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M19" t="n">
-        <v>1130.27825236505</v>
+        <v>1388.700612480481</v>
       </c>
       <c r="N19" t="n">
-        <v>1642.80643034845</v>
+        <v>1901.228790463881</v>
       </c>
       <c r="O19" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2039.173214856077</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>2039.173214856077</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1759.037876482359</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.700044464289</v>
+        <v>1477.326409090388</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.700044464289</v>
+        <v>1202.474005262901</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.700044464289</v>
+        <v>959.910108708706</v>
       </c>
       <c r="Y19" t="n">
-        <v>972.3572761540306</v>
+        <v>733.5673403984481</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1170.261104918197</v>
+        <v>894.7803300931902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.3603749314975</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="D20" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E20" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848321</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
         <v>1626.510864636164</v>
@@ -5773,31 +5773,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344158</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.808787422829</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="V20" t="n">
-        <v>1575.598374963307</v>
+        <v>1309.948028995152</v>
       </c>
       <c r="W20" t="n">
-        <v>1575.598374963307</v>
+        <v>913.5566792954987</v>
       </c>
       <c r="X20" t="n">
-        <v>1575.598374963307</v>
+        <v>894.7803300931902</v>
       </c>
       <c r="Y20" t="n">
-        <v>1170.261104918197</v>
+        <v>894.7803300931902</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,22 +5822,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J21" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426544</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109026</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333023</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.265890714586</v>
+        <v>287.4205002210548</v>
       </c>
       <c r="C22" t="n">
-        <v>813.293327593502</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="D22" t="n">
-        <v>649.9765547202727</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="E22" t="n">
-        <v>483.7683488731262</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="F22" t="n">
-        <v>311.9065746476866</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G22" t="n">
-        <v>146.5499572515079</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H22" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>601.1799509534052</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M22" t="n">
-        <v>1130.27825236505</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N22" t="n">
-        <v>1642.80643034845</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O22" t="n">
-        <v>1745.26045311658</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>2022.684731296605</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1783.19234339075</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1503.057005017032</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1221.34553762506</v>
       </c>
       <c r="W22" t="n">
-        <v>1175.431859426652</v>
+        <v>946.4931337975734</v>
       </c>
       <c r="X22" t="n">
-        <v>1175.431859426652</v>
+        <v>703.9292372433785</v>
       </c>
       <c r="Y22" t="n">
-        <v>1175.431859426652</v>
+        <v>477.5864689331204</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1112.043236288222</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C23" t="n">
-        <v>685.1425063015224</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D23" t="n">
-        <v>337.3830269021693</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>337.3830269021693</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>596.1507915280446</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466719</v>
+        <v>810.9839034818403</v>
       </c>
       <c r="L23" t="n">
-        <v>1197.759246481001</v>
+        <v>1083.499912005672</v>
       </c>
       <c r="M23" t="n">
-        <v>1506.132097761818</v>
+        <v>1391.872763286489</v>
       </c>
       <c r="N23" t="n">
-        <v>1820.244488031809</v>
+        <v>1705.98515355648</v>
       </c>
       <c r="O23" t="n">
-        <v>2114.684931032333</v>
+        <v>2000.425596557004</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.376624373295</v>
+        <v>2246.117289897966</v>
       </c>
       <c r="Q23" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556174</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.340219156767</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="V23" t="n">
-        <v>2745.340219156767</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="W23" t="n">
-        <v>2348.948869457115</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="X23" t="n">
-        <v>1937.228870624862</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="Y23" t="n">
-        <v>1531.891600579752</v>
+        <v>2533.201083152477</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6126,28 +6126,28 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705196</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K25" t="n">
         <v>431.0790168988077</v>
@@ -6156,43 +6156,43 @@
         <v>916.9624006820206</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1314.427484261183</v>
+        <v>483.7860289641056</v>
       </c>
       <c r="C26" t="n">
-        <v>887.5267542744834</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="D26" t="n">
-        <v>887.5267542744834</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="E26" t="n">
-        <v>887.5267542744834</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F26" t="n">
-        <v>462.4025724638836</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542981</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L26" t="n">
         <v>1118.62967157813</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2533.201083152476</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2175.711668278725</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>1779.320318579072</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X26" t="n">
-        <v>1367.60031974682</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y26" t="n">
-        <v>1367.60031974682</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965736</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189734</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M27" t="n">
         <v>1019.652926874475</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
@@ -6387,10 +6387,10 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>397.2373026266567</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
         <v>1412.632225509645</v>
@@ -6408,13 +6408,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1186.652587569311</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.652587569311</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D29" t="n">
-        <v>763.3599667543117</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E29" t="n">
-        <v>337.3830269021693</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F29" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
         <v>337.3830269021693</v>
@@ -6460,28 +6460,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>596.1507915280437</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466719</v>
+        <v>810.9839034818394</v>
       </c>
       <c r="L29" t="n">
-        <v>1197.759246481001</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649222</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6502,13 +6502,13 @@
         <v>2117.083011832651</v>
       </c>
       <c r="W29" t="n">
-        <v>1720.691662132998</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X29" t="n">
-        <v>1720.691662132998</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="Y29" t="n">
-        <v>1315.354392087888</v>
+        <v>2014.108650762233</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140357</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M30" t="n">
-        <v>757.2107328695372</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503733</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526592</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P30" t="n">
         <v>1679.210510182351</v>
@@ -6600,16 +6600,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
         <v>268.5545278431409</v>
@@ -6630,13 +6630,13 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
         <v>2802.642500785833</v>
@@ -6645,28 +6645,28 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1315.354392087888</v>
+        <v>2163.697044928325</v>
       </c>
       <c r="C32" t="n">
-        <v>888.4536621011885</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D32" t="n">
-        <v>888.4536621011885</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E32" t="n">
-        <v>739.714908284491</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>596.1507915280437</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466719</v>
+        <v>810.9839034818394</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705038</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N32" t="n">
-        <v>1349.385694421312</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O32" t="n">
-        <v>1848.186938279251</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P32" t="n">
-        <v>2093.878631620213</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q32" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.572426706402</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="V32" t="n">
-        <v>2117.083011832651</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="W32" t="n">
-        <v>1720.691662132998</v>
+        <v>2583.545409219855</v>
       </c>
       <c r="X32" t="n">
-        <v>1720.691662132998</v>
+        <v>2583.545409219855</v>
       </c>
       <c r="Y32" t="n">
-        <v>1315.354392087888</v>
+        <v>2583.545409219855</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>421.7811819283257</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965739</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140357</v>
+        <v>775.8227259189737</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695372</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503733</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O33" t="n">
         <v>1499.76985653153</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O34" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P34" t="n">
-        <v>2836.484215057984</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6885,25 +6885,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T34" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>760.0310153845762</v>
+        <v>1455.283123511904</v>
       </c>
       <c r="C35" t="n">
-        <v>743.3603749314975</v>
+        <v>1028.382393525204</v>
       </c>
       <c r="D35" t="n">
-        <v>320.0677541164978</v>
+        <v>1028.382393525204</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0677541164978</v>
+        <v>602.405453673062</v>
       </c>
       <c r="F35" t="n">
-        <v>320.0677541164978</v>
+        <v>602.405453673062</v>
       </c>
       <c r="G35" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T35" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U35" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.142363916482</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="W35" t="n">
-        <v>1171.751014216829</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="X35" t="n">
-        <v>760.0310153845762</v>
+        <v>1455.283123511904</v>
       </c>
       <c r="Y35" t="n">
-        <v>760.0310153845762</v>
+        <v>1455.283123511904</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,31 +7007,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745211</v>
       </c>
       <c r="J36" t="n">
-        <v>299.0104088577483</v>
+        <v>299.0104088577493</v>
       </c>
       <c r="K36" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259975</v>
       </c>
       <c r="L36" t="n">
-        <v>653.0519528483964</v>
+        <v>653.0519528483971</v>
       </c>
       <c r="M36" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038984</v>
       </c>
       <c r="N36" t="n">
-        <v>1149.507219438093</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O36" t="n">
-        <v>1376.999083460952</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P36" t="n">
         <v>1556.439737111774</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.1638705630489</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C37" t="n">
-        <v>782.1913074419649</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D37" t="n">
-        <v>618.8745345687356</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E37" t="n">
-        <v>452.6663287215891</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F37" t="n">
-        <v>280.8045544961495</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484802</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>944.8790293374096</v>
+        <v>481.8999867656336</v>
       </c>
       <c r="M37" t="n">
-        <v>1473.977330749054</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1588.472585890574</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S37" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098195</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.215415329222</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.215415329222</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.503947937251</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="W37" t="n">
-        <v>1574.651544109764</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.087647555569</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y37" t="n">
-        <v>1105.744879245311</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>469.6561482825904</v>
+        <v>1575.277305337662</v>
       </c>
       <c r="C38" t="n">
-        <v>42.75541829589048</v>
+        <v>1148.376575350962</v>
       </c>
       <c r="D38" t="n">
-        <v>42.75541829589048</v>
+        <v>1148.376575350962</v>
       </c>
       <c r="E38" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="F38" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="T38" t="n">
-        <v>1925.631778790233</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="U38" t="n">
-        <v>1925.631778790233</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.142363916482</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="W38" t="n">
-        <v>1568.142363916482</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="X38" t="n">
-        <v>1294.84178261923</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.5045125741204</v>
+        <v>1780.281499920772</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745211</v>
       </c>
       <c r="J39" t="n">
-        <v>299.0104088577483</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K39" t="n">
-        <v>446.8013632259966</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L39" t="n">
-        <v>653.0519528483964</v>
+        <v>758.507453133303</v>
       </c>
       <c r="M39" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N39" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O39" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P39" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q39" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>484.0707185768411</v>
+        <v>241.5068220226448</v>
       </c>
       <c r="C40" t="n">
-        <v>484.0707185768411</v>
+        <v>69.53425890156083</v>
       </c>
       <c r="D40" t="n">
-        <v>417.447460904616</v>
+        <v>69.53425890156083</v>
       </c>
       <c r="E40" t="n">
-        <v>251.2392550574696</v>
+        <v>69.53425890156083</v>
       </c>
       <c r="F40" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H40" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4811349991142</v>
+        <v>491.685460761357</v>
       </c>
       <c r="L40" t="n">
-        <v>275.9756251911622</v>
+        <v>977.5688445445699</v>
       </c>
       <c r="M40" t="n">
-        <v>805.0739266028069</v>
+        <v>1388.700612480481</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.602104586207</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O40" t="n">
-        <v>1797.75845165754</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>1976.771053098195</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V40" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="W40" t="n">
-        <v>900.5794555991647</v>
+        <v>900.5794555991633</v>
       </c>
       <c r="X40" t="n">
-        <v>900.5794555991647</v>
+        <v>658.0155590449684</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.2366872889068</v>
+        <v>431.6727907347105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1062.519310995832</v>
+        <v>854.9280228494235</v>
       </c>
       <c r="C41" t="n">
-        <v>870.211481488812</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="D41" t="n">
-        <v>870.211481488812</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="E41" t="n">
-        <v>870.211481488812</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="F41" t="n">
-        <v>445.0872996782122</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272598</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U41" t="n">
-        <v>1879.576579873195</v>
+        <v>1608.808787422827</v>
       </c>
       <c r="V41" t="n">
-        <v>1879.576579873195</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="W41" t="n">
-        <v>1879.576579873195</v>
+        <v>854.9280228494235</v>
       </c>
       <c r="X41" t="n">
-        <v>1467.856581040942</v>
+        <v>854.9280228494235</v>
       </c>
       <c r="Y41" t="n">
-        <v>1062.519310995832</v>
+        <v>854.9280228494235</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,34 +7481,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745209</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>758.507453133303</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.7346928875</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.4713517589686</v>
+        <v>1017.262669716467</v>
       </c>
       <c r="C43" t="n">
-        <v>709.4987886378846</v>
+        <v>845.2901065953832</v>
       </c>
       <c r="D43" t="n">
-        <v>546.1820157646553</v>
+        <v>681.9733337221539</v>
       </c>
       <c r="E43" t="n">
-        <v>379.9738099175088</v>
+        <v>515.7651278750075</v>
       </c>
       <c r="F43" t="n">
-        <v>208.1120356920692</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.713205484848</v>
       </c>
       <c r="K43" t="n">
-        <v>491.6854607613571</v>
+        <v>166.481134999114</v>
       </c>
       <c r="L43" t="n">
-        <v>977.5688445445701</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M43" t="n">
-        <v>1093.544903181524</v>
+        <v>1010.998288177277</v>
       </c>
       <c r="N43" t="n">
-        <v>1208.040158323044</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.326552563498</v>
+        <v>1983.326552563496</v>
       </c>
       <c r="T43" t="n">
-        <v>1743.834164657643</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U43" t="n">
-        <v>1743.834164657643</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="V43" t="n">
-        <v>1743.834164657643</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="W43" t="n">
-        <v>1540.543985335487</v>
+        <v>1676.335303292986</v>
       </c>
       <c r="X43" t="n">
-        <v>1297.980088781292</v>
+        <v>1433.771406738791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1071.637320471034</v>
+        <v>1207.428638428533</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.211481488812</v>
+        <v>1723.089151327654</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>870.2114814888118</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>445.0872996782121</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103642</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072048</v>
       </c>
       <c r="K44" t="n">
         <v>437.0691715610004</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848329</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272598</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.14225834845</v>
+        <v>2080.578566201405</v>
       </c>
       <c r="T44" t="n">
-        <v>2079.14225834845</v>
+        <v>2080.578566201405</v>
       </c>
       <c r="U44" t="n">
-        <v>1820.94792342712</v>
+        <v>2080.578566201405</v>
       </c>
       <c r="V44" t="n">
-        <v>1463.45850855337</v>
+        <v>1723.089151327654</v>
       </c>
       <c r="W44" t="n">
-        <v>1463.45850855337</v>
+        <v>1723.089151327654</v>
       </c>
       <c r="X44" t="n">
-        <v>1051.738509721117</v>
+        <v>1723.089151327654</v>
       </c>
       <c r="Y44" t="n">
-        <v>870.211481488812</v>
+        <v>1723.089151327654</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186394</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426541</v>
+        <v>165.4810209821279</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>313.2719753503761</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>519.5225649727757</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>763.352765928277</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562472</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585331</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236153</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.1638705630489</v>
+        <v>438.2282902000117</v>
       </c>
       <c r="C46" t="n">
-        <v>782.1913074419649</v>
+        <v>266.2557270789276</v>
       </c>
       <c r="D46" t="n">
-        <v>618.8745345687356</v>
+        <v>266.2557270789276</v>
       </c>
       <c r="E46" t="n">
-        <v>452.6663287215891</v>
+        <v>266.2557270789276</v>
       </c>
       <c r="F46" t="n">
-        <v>280.8045544961495</v>
+        <v>94.39395285348806</v>
       </c>
       <c r="G46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="J46" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K46" t="n">
-        <v>491.6854607613571</v>
+        <v>372.4054965735853</v>
       </c>
       <c r="L46" t="n">
-        <v>977.5688445445701</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M46" t="n">
-        <v>1388.700612480482</v>
+        <v>1010.998288177277</v>
       </c>
       <c r="N46" t="n">
-        <v>1901.228790463882</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563498</v>
+        <v>1983.326552563496</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657643</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U46" t="n">
-        <v>1743.834164657643</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="V46" t="n">
-        <v>1462.122697265671</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.270293438184</v>
+        <v>907.1349550644645</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.270293438184</v>
+        <v>664.5710585102696</v>
       </c>
       <c r="Y46" t="n">
-        <v>960.9275251279264</v>
+        <v>438.2282902000117</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,16 +8856,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219103</v>
+        <v>245.1087987454515</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>229.8670614395829</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>194.2682636425311</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307792</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219103</v>
+        <v>298.1370800999573</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>108.1301643813463</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>282.8953427940875</v>
       </c>
       <c r="P22" t="n">
-        <v>261.0326869852846</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>360.2014738739077</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>227.6271864743971</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>383.5290567582533</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340902</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>307.5560500126506</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>360.2014738739068</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>381.403608977176</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>203.0230036898349</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>360.2014738739068</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>206.4250513711264</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>265.0931252575129</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.7189728340888</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>158.5724178990224</v>
+        <v>158.5724178990235</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>347.1707862464692</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>158.5724178990224</v>
+        <v>265.0931252575142</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>298.1370800999574</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>208.0044056307796</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>265.0931252575142</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307791</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>231.372656757204</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>129.2956009356064</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>298.1370800999576</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>277.123246627344</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>68.33290835900709</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>37.92725147284099</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>8.064825214045328</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>292.3581975124818</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>360.1459667195571</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>125.1655904527796</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.52602369068353</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>94.77314331279979</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>22.24846056239644</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
         <v>255.612391572116</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>61.77814014030287</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>23.03550318726042</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>321.0362123900861</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>389.0142131336447</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>103.642404827902</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>38.96459694577685</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.84088280670443</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>74.77781000149014</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>363.0087735178347</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>277.6927506455159</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.2350941752237</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>299.3392798849446</v>
       </c>
     </row>
     <row r="30">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>274.4658041750905</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>186.6559274372457</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25156,19 +25156,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>406.1277886382849</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>118.7942400074999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.19911042950528</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>143.6321042835714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.6957280113357</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
         <v>255.612391572116</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>137.0352233596508</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>95.72658004899418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>143.6321042835715</v>
       </c>
       <c r="G40" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>232.2469714748828</v>
+        <v>291.4286192097347</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648595</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>70.84660226027805</v>
+        <v>205.2800070382036</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.42194477442785</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>221.5721393946766</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.5682910057163</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.5809020101953</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648595</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.5694980421</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.569498042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.5694980421</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463677.3416918147</v>
+        <v>463677.3416918149</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463677.3416918145</v>
+        <v>463677.3416918147</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463677.3416918145</v>
+        <v>463677.3416918147</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463677.3416918145</v>
+        <v>463677.3416918147</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.5694980421</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.5694980421</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343273.5694980422</v>
+        <v>343273.569498042</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>459005.7691301063</v>
       </c>
       <c r="D2" t="n">
-        <v>459005.7691301061</v>
+        <v>459005.7691301063</v>
       </c>
       <c r="E2" t="n">
-        <v>272948.3045884967</v>
+        <v>272948.3045884966</v>
       </c>
       <c r="F2" t="n">
         <v>272948.3045884967</v>
       </c>
       <c r="G2" t="n">
-        <v>272948.3045884967</v>
+        <v>272948.3045884966</v>
       </c>
       <c r="H2" t="n">
-        <v>272948.3045884968</v>
+        <v>272948.3045884966</v>
       </c>
       <c r="I2" t="n">
         <v>342564.5111976895</v>
       </c>
       <c r="J2" t="n">
-        <v>342564.5111976891</v>
+        <v>342564.5111976893</v>
       </c>
       <c r="K2" t="n">
-        <v>342564.5111976891</v>
+        <v>342564.5111976894</v>
       </c>
       <c r="L2" t="n">
-        <v>342564.5111976893</v>
+        <v>342564.5111976894</v>
       </c>
       <c r="M2" t="n">
+        <v>272948.3045884966</v>
+      </c>
+      <c r="N2" t="n">
         <v>272948.3045884967</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>272948.3045884965</v>
+      </c>
+      <c r="P2" t="n">
         <v>272948.3045884966</v>
-      </c>
-      <c r="O2" t="n">
-        <v>272948.3045884966</v>
-      </c>
-      <c r="P2" t="n">
-        <v>272948.3045884969</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048187</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160775</v>
+        <v>79247.32527160771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>321757.302549922</v>
       </c>
       <c r="E4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="F4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="G4" t="n">
         <v>19590.20678464904</v>
       </c>
       <c r="H4" t="n">
-        <v>19590.20678464903</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="I4" t="n">
-        <v>57457.91431298881</v>
+        <v>57457.91431298891</v>
       </c>
       <c r="J4" t="n">
-        <v>57457.91431298882</v>
+        <v>57457.91431298883</v>
       </c>
       <c r="K4" t="n">
-        <v>57457.9143129888</v>
+        <v>57457.91431298888</v>
       </c>
       <c r="L4" t="n">
-        <v>57457.91431298881</v>
+        <v>57457.91431298888</v>
       </c>
       <c r="M4" t="n">
-        <v>19590.20678464904</v>
+        <v>19590.20678464906</v>
       </c>
       <c r="N4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464906</v>
       </c>
       <c r="O4" t="n">
         <v>19590.20678464905</v>
       </c>
       <c r="P4" t="n">
-        <v>19590.20678464904</v>
+        <v>19590.20678464905</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650121</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650121</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103620.8665801843</v>
+        <v>103599.1529386879</v>
       </c>
       <c r="C6" t="n">
-        <v>103620.8665801843</v>
+        <v>103599.152938688</v>
       </c>
       <c r="D6" t="n">
-        <v>103620.8665801841</v>
+        <v>103599.1529386879</v>
       </c>
       <c r="E6" t="n">
-        <v>-346601.2725349072</v>
+        <v>-347204.4157530962</v>
       </c>
       <c r="F6" t="n">
-        <v>210088.3833873465</v>
+        <v>209485.2401691575</v>
       </c>
       <c r="G6" t="n">
-        <v>210088.3833873464</v>
+        <v>209485.2401691575</v>
       </c>
       <c r="H6" t="n">
-        <v>210088.3833873465</v>
+        <v>209485.2401691574</v>
       </c>
       <c r="I6" t="n">
-        <v>171121.0919706073</v>
+        <v>170735.499398072</v>
       </c>
       <c r="J6" t="n">
-        <v>228677.2751510887</v>
+        <v>228291.6825785538</v>
       </c>
       <c r="K6" t="n">
-        <v>228677.2751510887</v>
+        <v>228291.6825785538</v>
       </c>
       <c r="L6" t="n">
-        <v>228677.275151089</v>
+        <v>228291.6825785538</v>
       </c>
       <c r="M6" t="n">
-        <v>130841.0581157387</v>
+        <v>130237.9148975497</v>
       </c>
       <c r="N6" t="n">
-        <v>210088.3833873463</v>
+        <v>209485.2401691575</v>
       </c>
       <c r="O6" t="n">
-        <v>210088.3833873463</v>
+        <v>209485.2401691574</v>
       </c>
       <c r="P6" t="n">
-        <v>210088.3833873466</v>
+        <v>209485.2401691575</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.293417964426</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644258</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644258</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644258</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644258</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986305</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986305</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208937</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777377</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,34 +31992,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
@@ -32028,10 +32028,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
@@ -32083,34 +32083,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32171,19 +32171,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
         <v>3.80849026956197</v>
@@ -32229,34 +32229,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
@@ -32265,10 +32265,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
@@ -32320,34 +32320,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32408,19 +32408,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
         <v>3.80849026956197</v>
@@ -32466,46 +32466,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32557,34 +32557,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32645,25 +32645,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32794,34 +32794,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32882,25 +32882,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33031,34 +33031,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33119,25 +33119,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33268,34 +33268,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33356,25 +33356,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33505,34 +33505,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33593,25 +33593,25 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824817</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659135</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454418</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596216</v>
       </c>
       <c r="R35" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
-        <v>10.26824628639308</v>
+        <v>10.26824628639307</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208248</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.389912790612</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551335</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K37" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L37" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682064</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561968</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824817</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659135</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454418</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596216</v>
       </c>
       <c r="R38" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
-        <v>10.26824628639308</v>
+        <v>10.26824628639307</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208248</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.389912790612</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551335</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L40" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M40" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682064</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561968</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824817</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659135</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454418</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596216</v>
       </c>
       <c r="R41" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H42" t="n">
-        <v>10.26824628639308</v>
+        <v>10.26824628639307</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208248</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.389912790612</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551335</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M43" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682064</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561968</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781242</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491872</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824817</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112417</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659135</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454418</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596216</v>
       </c>
       <c r="R44" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H45" t="n">
-        <v>10.26824628639308</v>
+        <v>10.26824628639307</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208248</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.389912790612</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551335</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741878</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932268</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003422</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507113</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M46" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682064</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561968</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4101197578749</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35509,10 +35509,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R12" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,16 +35576,16 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>534.442728698631</v>
+        <v>362.2563327221722</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>315.290844922559</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q13" t="n">
         <v>50.0187433478434</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35737,19 +35737,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L16" t="n">
-        <v>304.8687587860139</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137553</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K17" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
@@ -35971,22 +35971,22 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>404.8655501773066</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>415.2846140766779</v>
       </c>
       <c r="N19" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6190762683465</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163659</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>386.3842546810876</v>
       </c>
       <c r="P22" t="n">
-        <v>346.4564704682608</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>499.4349253750878</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>750.8836385195242</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>406.0879524294209</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R23" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116931</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
-        <v>500.6765907349741</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819336</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>486.0168159676743</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486727</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>219.4819269776933</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048236</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>499.4349253750869</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>750.8836385195242</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8913375436579</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>288.446787172811</v>
       </c>
       <c r="Q31" t="n">
         <v>202.9212659517818</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>499.4349253750869</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>503.8396402605444</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>675.2778440992007</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
-        <v>494.8828868967645</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048236</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N34" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>168.7377161819322</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894177</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550239</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208248</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4101197578749</v>
+        <v>238.410119757876</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.293132278284</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739346</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392514</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058805</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116926</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622833</v>
       </c>
       <c r="L37" t="n">
-        <v>457.771281389952</v>
+        <v>318.6049007742621</v>
       </c>
       <c r="M37" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297611</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208248</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4101197578749</v>
+        <v>344.9308271163667</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.293132278284</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739346</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392514</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058805</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>148.85927498986</v>
+        <v>42.3385676313692</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427152</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M40" t="n">
-        <v>534.442728698631</v>
+        <v>415.2846140766781</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4281891137558</v>
+        <v>85.42378348297611</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969615</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894177</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208248</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163667</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.293132278284</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739346</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392514</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058805</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>42.3385676313692</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116926</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622833</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742618</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986305</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
-        <v>334.8615686442041</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297611</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095522</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786187</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894177</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J45" t="n">
-        <v>321.2365787886769</v>
+        <v>79.8377018588525</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.293132278284</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739346</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392514</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058805</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317584</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>332.3742814427153</v>
+        <v>211.8894691318348</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M46" t="n">
-        <v>415.2846140766783</v>
+        <v>534.4427286986305</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297611</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
